--- a/constructive-method/solutions/solution_40_heterogeneous_randomized.xlsx
+++ b/constructive-method/solutions/solution_40_heterogeneous_randomized.xlsx
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>637.0502757054818</v>
+        <v>627.6299599956752</v>
       </c>
     </row>
   </sheetData>
@@ -501,7 +501,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pedido_31</t>
+          <t>Pedido_9</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pedido_16</t>
+          <t>Pedido_2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pedido_15</t>
+          <t>Pedido_4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pedido_27</t>
+          <t>Pedido_18</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pedido_39</t>
+          <t>Pedido_20</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pedido_20</t>
+          <t>Pedido_5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pedido_8</t>
+          <t>Pedido_30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pedido_13</t>
+          <t>Pedido_37</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pedido_6</t>
+          <t>Pedido_22</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pedido_19</t>
+          <t>Pedido_7</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Pedido_30</t>
+          <t>Pedido_38</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Pedido_2</t>
+          <t>Pedido_16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Pedido_11</t>
+          <t>Pedido_28</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pedido_9</t>
+          <t>Pedido_23</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pedido_21</t>
+          <t>Pedido_13</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -681,31 +681,31 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Pedido_5</t>
+          <t>Pedido_17</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S032</t>
+          <t>S009</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Pedido_38</t>
+          <t>Pedido_11</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S009</t>
+          <t>S032</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Pedido_4</t>
+          <t>Pedido_14</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Pedido_25</t>
+          <t>Pedido_3</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pedido_26</t>
+          <t>Pedido_19</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pedido_7</t>
+          <t>Pedido_6</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Pedido_12</t>
+          <t>Pedido_40</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pedido_28</t>
+          <t>Pedido_35</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Pedido_17</t>
+          <t>Pedido_21</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -789,115 +789,115 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Pedido_14</t>
+          <t>Pedido_29</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S038</t>
+          <t>S015</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Pedido_36</t>
+          <t>Pedido_25</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S015</t>
+          <t>S038</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Pedido_18</t>
+          <t>Pedido_26</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S035</t>
+          <t>S012</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Pedido_34</t>
+          <t>Pedido_36</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>S012</t>
+          <t>S016</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Pedido_1</t>
+          <t>Pedido_12</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S016</t>
+          <t>S035</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pedido_33</t>
+          <t>Pedido_34</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S039</t>
+          <t>S017</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Pedido_10</t>
+          <t>Pedido_24</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>S017</t>
+          <t>S039</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Pedido_35</t>
+          <t>Pedido_1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S036</t>
+          <t>S021</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Pedido_23</t>
+          <t>Pedido_33</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S021</t>
+          <t>S036</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Pedido_32</t>
+          <t>Pedido_10</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Pedido_22</t>
+          <t>Pedido_27</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Pedido_29</t>
+          <t>Pedido_15</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Pedido_37</t>
+          <t>Pedido_31</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Pedido_24</t>
+          <t>Pedido_8</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Pedido_40</t>
+          <t>Pedido_39</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Pedido_3</t>
+          <t>Pedido_32</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>637.0502757054818</v>
+        <v>627.6299599956752</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>497.7951400151369</v>
+        <v>489.4081252027246</v>
       </c>
     </row>
   </sheetData>

--- a/constructive-method/solutions/solution_40_heterogeneous_randomized.xlsx
+++ b/constructive-method/solutions/solution_40_heterogeneous_randomized.xlsx
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>627.6299599956752</v>
+        <v>644.4108011676939</v>
       </c>
     </row>
   </sheetData>
@@ -501,7 +501,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pedido_9</t>
+          <t>Pedido_23</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pedido_2</t>
+          <t>Pedido_15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pedido_4</t>
+          <t>Pedido_20</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pedido_18</t>
+          <t>Pedido_27</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pedido_20</t>
+          <t>Pedido_30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -561,79 +561,79 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pedido_5</t>
+          <t>Pedido_35</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S026</t>
+          <t>S006</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pedido_30</t>
+          <t>Pedido_5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S006</t>
+          <t>S026</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pedido_37</t>
+          <t>Pedido_36</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S003</t>
+          <t>S030</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pedido_22</t>
+          <t>Pedido_7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S030</t>
+          <t>S003</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pedido_7</t>
+          <t>Pedido_19</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S007</t>
+          <t>S027</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Pedido_38</t>
+          <t>Pedido_12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S027</t>
+          <t>S007</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Pedido_16</t>
+          <t>Pedido_22</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Pedido_28</t>
+          <t>Pedido_4</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -657,60 +657,60 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pedido_23</t>
+          <t>Pedido_25</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S008</t>
+          <t>S028</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pedido_13</t>
+          <t>Pedido_18</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S028</t>
+          <t>S008</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Pedido_17</t>
+          <t>Pedido_13</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S009</t>
+          <t>S032</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Pedido_11</t>
+          <t>Pedido_9</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S032</t>
+          <t>S009</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Pedido_14</t>
+          <t>Pedido_11</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S013</t>
+          <t>S033</t>
         </is>
       </c>
     </row>
@@ -722,206 +722,206 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S033</t>
+          <t>S013</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pedido_19</t>
+          <t>Pedido_40</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S010</t>
+          <t>S037</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pedido_6</t>
+          <t>Pedido_38</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>S037</t>
+          <t>S010</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Pedido_40</t>
+          <t>Pedido_33</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S014</t>
+          <t>S034</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pedido_35</t>
+          <t>Pedido_17</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S034</t>
+          <t>S014</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Pedido_21</t>
+          <t>Pedido_6</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S011</t>
+          <t>S038</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Pedido_29</t>
+          <t>Pedido_16</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S015</t>
+          <t>S011</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Pedido_25</t>
+          <t>Pedido_10</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S038</t>
+          <t>S035</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Pedido_26</t>
+          <t>Pedido_39</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S012</t>
+          <t>S015</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Pedido_36</t>
+          <t>Pedido_1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>S016</t>
+          <t>S039</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Pedido_12</t>
+          <t>Pedido_31</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S035</t>
+          <t>S012</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pedido_34</t>
+          <t>Pedido_14</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S017</t>
+          <t>S036</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Pedido_24</t>
+          <t>Pedido_28</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>S039</t>
+          <t>S016</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Pedido_1</t>
+          <t>Pedido_2</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S021</t>
+          <t>S040</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Pedido_33</t>
+          <t>Pedido_32</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S036</t>
+          <t>S017</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Pedido_10</t>
+          <t>Pedido_37</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>S018</t>
+          <t>S021</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Pedido_27</t>
+          <t>Pedido_34</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S040</t>
+          <t>S018</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Pedido_15</t>
+          <t>Pedido_24</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Pedido_31</t>
+          <t>Pedido_21</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Pedido_39</t>
+          <t>Pedido_29</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Pedido_32</t>
+          <t>Pedido_26</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>627.6299599956752</v>
+        <v>644.4108011676939</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>489.4081252027246</v>
+        <v>469.6989674559413</v>
       </c>
     </row>
   </sheetData>

--- a/constructive-method/solutions/solution_40_heterogeneous_randomized.xlsx
+++ b/constructive-method/solutions/solution_40_heterogeneous_randomized.xlsx
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>644.4108011676939</v>
+        <v>640.4113147367285</v>
       </c>
     </row>
   </sheetData>
@@ -501,7 +501,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pedido_23</t>
+          <t>Pedido_20</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pedido_15</t>
+          <t>Pedido_11</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pedido_20</t>
+          <t>Pedido_40</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pedido_27</t>
+          <t>Pedido_7</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pedido_30</t>
+          <t>Pedido_19</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -561,31 +561,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pedido_35</t>
+          <t>Pedido_31</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S006</t>
+          <t>S026</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pedido_5</t>
+          <t>Pedido_36</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S026</t>
+          <t>S006</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pedido_36</t>
+          <t>Pedido_1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pedido_7</t>
+          <t>Pedido_6</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pedido_19</t>
+          <t>Pedido_16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Pedido_12</t>
+          <t>Pedido_26</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Pedido_22</t>
+          <t>Pedido_14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Pedido_4</t>
+          <t>Pedido_24</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -657,240 +657,240 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pedido_25</t>
+          <t>Pedido_30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S028</t>
+          <t>S008</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pedido_18</t>
+          <t>Pedido_13</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S008</t>
+          <t>S028</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Pedido_13</t>
+          <t>Pedido_27</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S032</t>
+          <t>S009</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Pedido_9</t>
+          <t>Pedido_35</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S009</t>
+          <t>S032</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Pedido_11</t>
+          <t>Pedido_12</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S033</t>
+          <t>S013</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Pedido_3</t>
+          <t>Pedido_8</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S013</t>
+          <t>S010</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pedido_40</t>
+          <t>Pedido_17</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S037</t>
+          <t>S033</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pedido_38</t>
+          <t>Pedido_3</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>S010</t>
+          <t>S014</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Pedido_33</t>
+          <t>Pedido_15</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S034</t>
+          <t>S037</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pedido_17</t>
+          <t>Pedido_21</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S014</t>
+          <t>S011</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Pedido_6</t>
+          <t>Pedido_10</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S038</t>
+          <t>S015</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Pedido_16</t>
+          <t>Pedido_9</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S011</t>
+          <t>S034</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Pedido_10</t>
+          <t>Pedido_4</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S035</t>
+          <t>S012</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Pedido_39</t>
+          <t>Pedido_28</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S015</t>
+          <t>S038</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Pedido_1</t>
+          <t>Pedido_33</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>S039</t>
+          <t>S016</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Pedido_31</t>
+          <t>Pedido_25</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S012</t>
+          <t>S035</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pedido_14</t>
+          <t>Pedido_32</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S036</t>
+          <t>S017</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Pedido_28</t>
+          <t>Pedido_18</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>S016</t>
+          <t>S039</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Pedido_2</t>
+          <t>Pedido_29</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S040</t>
+          <t>S021</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Pedido_32</t>
+          <t>Pedido_23</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S017</t>
+          <t>S018</t>
         </is>
       </c>
     </row>
@@ -902,26 +902,26 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>S021</t>
+          <t>S036</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Pedido_34</t>
+          <t>Pedido_2</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S018</t>
+          <t>S040</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Pedido_24</t>
+          <t>Pedido_22</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Pedido_21</t>
+          <t>Pedido_39</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Pedido_8</t>
+          <t>Pedido_34</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Pedido_29</t>
+          <t>Pedido_5</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Pedido_26</t>
+          <t>Pedido_38</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>644.4108011676939</v>
+        <v>640.4113147367285</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>469.6989674559413</v>
+        <v>493.0490863877178</v>
       </c>
     </row>
   </sheetData>

--- a/constructive-method/solutions/solution_40_heterogeneous_randomized.xlsx
+++ b/constructive-method/solutions/solution_40_heterogeneous_randomized.xlsx
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>640.4113147367285</v>
+        <v>641.03046275273</v>
       </c>
     </row>
   </sheetData>
@@ -501,7 +501,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pedido_20</t>
+          <t>Pedido_36</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pedido_11</t>
+          <t>Pedido_10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pedido_40</t>
+          <t>Pedido_31</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pedido_7</t>
+          <t>Pedido_19</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pedido_19</t>
+          <t>Pedido_5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pedido_31</t>
+          <t>Pedido_28</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pedido_36</t>
+          <t>Pedido_1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pedido_1</t>
+          <t>Pedido_16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pedido_6</t>
+          <t>Pedido_32</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -609,84 +609,84 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pedido_16</t>
+          <t>Pedido_9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S027</t>
+          <t>S007</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Pedido_26</t>
+          <t>Pedido_25</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S007</t>
+          <t>S027</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Pedido_14</t>
+          <t>Pedido_29</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S031</t>
+          <t>S004</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Pedido_24</t>
+          <t>Pedido_40</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S004</t>
+          <t>S008</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pedido_30</t>
+          <t>Pedido_38</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S008</t>
+          <t>S031</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pedido_13</t>
+          <t>Pedido_12</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S028</t>
+          <t>S009</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Pedido_27</t>
+          <t>Pedido_6</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S009</t>
+          <t>S028</t>
         </is>
       </c>
     </row>
@@ -698,26 +698,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S032</t>
+          <t>S013</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Pedido_12</t>
+          <t>Pedido_2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S013</t>
+          <t>S032</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Pedido_8</t>
+          <t>Pedido_17</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pedido_17</t>
+          <t>Pedido_7</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pedido_3</t>
+          <t>Pedido_33</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Pedido_15</t>
+          <t>Pedido_22</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pedido_21</t>
+          <t>Pedido_27</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -777,151 +777,151 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Pedido_10</t>
+          <t>Pedido_4</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S015</t>
+          <t>S034</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Pedido_9</t>
+          <t>Pedido_14</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S034</t>
+          <t>S015</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Pedido_4</t>
+          <t>Pedido_26</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S012</t>
+          <t>S038</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Pedido_28</t>
+          <t>Pedido_24</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S038</t>
+          <t>S012</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Pedido_33</t>
+          <t>Pedido_15</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>S016</t>
+          <t>S035</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Pedido_25</t>
+          <t>Pedido_21</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S035</t>
+          <t>S016</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pedido_32</t>
+          <t>Pedido_39</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S017</t>
+          <t>S039</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Pedido_18</t>
+          <t>Pedido_13</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>S039</t>
+          <t>S017</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Pedido_29</t>
+          <t>Pedido_18</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S021</t>
+          <t>S036</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Pedido_23</t>
+          <t>Pedido_30</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S018</t>
+          <t>S021</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Pedido_37</t>
+          <t>Pedido_23</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>S036</t>
+          <t>S040</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Pedido_2</t>
+          <t>Pedido_34</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S040</t>
+          <t>S018</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Pedido_22</t>
+          <t>Pedido_11</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Pedido_39</t>
+          <t>Pedido_20</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Pedido_34</t>
+          <t>Pedido_3</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Pedido_5</t>
+          <t>Pedido_8</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Pedido_38</t>
+          <t>Pedido_37</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>640.4113147367285</v>
+        <v>641.03046275273</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493.0490863877178</v>
+        <v>480.8947453778786</v>
       </c>
     </row>
   </sheetData>
